--- a/your-project/rental_price.xlsx
+++ b/your-project/rental_price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albabalcells/Pictures/Ironhack/Ironhack Labs/Labs W2/Project-Week-2-Barcelona/your-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAF5DF6-EF82-2946-99A9-939A3368B601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83218F63-3512-5342-B2BF-C7EC14E42124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15680" xr2:uid="{0748EBAD-05C8-D740-9865-64D926FCD2E1}"/>
   </bookViews>
@@ -662,7 +662,7 @@
   <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,10 +674,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>85</v>

--- a/your-project/rental_price.xlsx
+++ b/your-project/rental_price.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albabalcells/Pictures/Ironhack/Ironhack Labs/Labs W2/Project-Week-2-Barcelona/your-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83218F63-3512-5342-B2BF-C7EC14E42124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58119C1-37BB-7447-B8C7-2E4247C8A5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15680" xr2:uid="{0748EBAD-05C8-D740-9865-64D926FCD2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="85">
   <si>
     <t>Ciutat Vella</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>la Marina del Prat Vermell - Zona Franca</t>
-  </si>
-  <si>
-    <t>n.d.</t>
   </si>
   <si>
     <t>la Marina de Port</t>
@@ -339,12 +336,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D132A3B-D74F-D74A-AF56-A4F11ABE221B}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,18 +670,18 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +692,7 @@
         <v>4.0289999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +703,7 @@
         <v>4.8840000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +714,7 @@
         <v>5.165</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +725,7 @@
         <v>5.1520000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -738,7 +736,7 @@
         <v>4.1070000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -749,7 +747,7 @@
         <v>4.2089999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -760,7 +758,7 @@
         <v>6.3319999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,7 +769,7 @@
         <v>5.0910000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -782,7 +780,7 @@
         <v>4.4649999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,7 +791,7 @@
         <v>4.5910000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -803,562 +801,584 @@
       <c r="C12" s="2">
         <v>3.9359999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>2.7229999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
         <v>3.51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
         <v>3.9119999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
         <v>3.1709999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
         <v>3.4689999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
         <v>3.6659999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C20" s="2">
         <v>4.8209999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
         <v>4.3390000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2">
         <v>6.34</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="2">
+        <v>5.27</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C24" s="2">
         <v>6.0419999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2">
         <v>5.6890000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2">
         <v>5.0289999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2">
         <v>5.306</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2">
         <v>4.2889999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C29" s="2">
         <v>3.5409999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C31" s="2">
         <v>3.5609999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2">
         <v>4.4260000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2">
         <v>4.391</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C34" s="2">
         <v>3.4929999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="2">
         <v>2.859</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="2">
         <v>3.1640000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2">
         <v>3.206</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2">
         <v>2.242</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="2">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="2">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="2">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C44" s="2">
         <v>2.97</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C45" s="2">
         <v>2.774</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2">
         <v>2.7050000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="D47" s="5">
+        <f>AVERAGE(C45,C46,C51:C53,C56)</f>
+        <v>2.2343333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="2">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="2">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="2">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C51" s="2">
         <v>1.885</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2">
         <v>2.331</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2">
         <v>2.2130000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="2">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C56" s="2">
         <v>1.498</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C58" s="2">
         <v>1.776</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2.83</v>
+      </c>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="2">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" s="2">
         <v>3.21</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2">
         <v>3.2959999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C64" s="2">
         <v>3.0289999999999999</v>
@@ -1366,10 +1386,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C65" s="2">
         <v>3.5609999999999999</v>
@@ -1377,10 +1397,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2">
         <v>3.524</v>
@@ -1388,10 +1408,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2">
         <v>4.0759999999999996</v>
@@ -1399,10 +1419,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2">
         <v>5.4020000000000001</v>
@@ -1410,10 +1430,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="2">
         <v>4.3239999999999998</v>
@@ -1421,10 +1441,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" s="2">
         <v>6.4020000000000001</v>
@@ -1432,10 +1452,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C71" s="2">
         <v>2.786</v>
@@ -1443,10 +1463,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" s="2">
         <v>3.194</v>
@@ -1454,10 +1474,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="2">
         <v>2.7589999999999999</v>
@@ -1465,10 +1485,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" s="2">
         <v>2.4430000000000001</v>

--- a/your-project/rental_price.xlsx
+++ b/your-project/rental_price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albabalcells/Pictures/Ironhack/Ironhack Labs/Labs W2/Project-Week-2-Barcelona/your-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58119C1-37BB-7447-B8C7-2E4247C8A5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BA0CAB-339C-5349-A992-48CFFDF9D7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15680" xr2:uid="{0748EBAD-05C8-D740-9865-64D926FCD2E1}"/>
   </bookViews>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D132A3B-D74F-D74A-AF56-A4F11ABE221B}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1191,10 +1191,7 @@
       <c r="C47" s="2">
         <v>2.33</v>
       </c>
-      <c r="D47" s="5">
-        <f>AVERAGE(C45,C46,C51:C53,C56)</f>
-        <v>2.2343333333333333</v>
-      </c>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
